--- a/FYN/data/FIN-FindingVulnerabilities-GroundTruth_good_to_use.xlsx
+++ b/FYN/data/FIN-FindingVulnerabilities-GroundTruth_good_to_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ole\Documents\Master\2nd year\Security Experiments and Measurements\security-experiments-and-measurements\FYN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240BCF1-52BE-4817-A331-4A23618A86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E518664E-30BA-4622-9BC4-46B1A958B694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="7272" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,15 +94,18 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -376,12 +379,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="87.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
